--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/Refreshable_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/Refreshable_CA_SELECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSAA\CODE\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -574,13 +574,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
@@ -785,16 +786,16 @@
         <v>55</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AG2">
         <v>20000101</v>
@@ -895,16 +896,16 @@
         <v>39</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="AG3">
         <v>20010101</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/Refreshable_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/Refreshable_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
   <si>
     <t>VERSION</t>
   </si>
@@ -152,42 +152,9 @@
     <t>040</t>
   </si>
   <si>
-    <t>HOND</t>
-  </si>
-  <si>
-    <t>HONDA</t>
-  </si>
-  <si>
-    <t>CIVIC</t>
-  </si>
-  <si>
-    <t>CIVIC LX</t>
-  </si>
-  <si>
-    <t>2D CPE</t>
-  </si>
-  <si>
     <t>COUPE</t>
   </si>
   <si>
-    <t>CPE</t>
-  </si>
-  <si>
-    <t>1.7L L4</t>
-  </si>
-  <si>
-    <t>000E</t>
-  </si>
-  <si>
-    <t>FRONT AIRBAGS</t>
-  </si>
-  <si>
-    <t>NOT AVAILABLE</t>
-  </si>
-  <si>
-    <t>P-PASSIVE SENTRY KEY</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -237,6 +204,33 @@
   </si>
   <si>
     <t>AAANK3CC&amp;F</t>
+  </si>
+  <si>
+    <t>TOYT</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>CAMRY LE/XLE/SE</t>
+  </si>
+  <si>
+    <t>4D SED</t>
+  </si>
+  <si>
+    <t>SED</t>
+  </si>
+  <si>
+    <t>2.4L L4</t>
+  </si>
+  <si>
+    <t>000S</t>
+  </si>
+  <si>
+    <t>FRONT, HEAD &amp; SIDE AIRBAGS</t>
+  </si>
+  <si>
+    <t>H-IMMOBILIZER/ALARM</t>
   </si>
 </sst>
 </file>
@@ -574,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" activeCellId="1" sqref="B2 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +594,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -684,33 +678,33 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -719,33 +713,33 @@
         <v>2018</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2">
         <v>20000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="O2" s="2">
         <v>4</v>
@@ -759,60 +753,60 @@
         <v>2</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AD2" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="AG2">
         <v>20000101</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>55</v>
+      <c r="AI2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
@@ -824,10 +818,10 @@
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
@@ -896,33 +890,33 @@
         <v>39</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG3">
         <v>20010101</v>
       </c>
       <c r="AH3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -1006,16 +1000,16 @@
         <v>39</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AG4">
         <v>20020101</v>
@@ -1024,15 +1018,15 @@
         <v>39</v>
       </c>
       <c r="AI4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
@@ -1044,10 +1038,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>28</v>
@@ -1116,16 +1110,16 @@
         <v>39</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AG5">
         <v>20150101</v>
@@ -1134,10 +1128,10 @@
         <v>39</v>
       </c>
       <c r="AI5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/Refreshable_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/Refreshable_CA_SELECT.xlsx
@@ -203,9 +203,6 @@
     <t>VIN</t>
   </si>
   <si>
-    <t>AAANK3CC&amp;F</t>
-  </si>
-  <si>
     <t>TOYT</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>H-IMMOBILIZER/ALARM</t>
+  </si>
+  <si>
+    <t>1HGEM215&amp;F</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" activeCellId="1" sqref="B2 C6"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +704,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -713,22 +713,22 @@
         <v>2018</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
         <v>60</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="H2" s="2">
         <v>20000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>42</v>
@@ -736,10 +736,10 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="O2" s="2">
         <v>4</v>
@@ -753,10 +753,10 @@
         <v>2</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="V2" s="2">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>36</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z2" s="2">
         <v>11</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/Refreshable_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/Refreshable_CA_SELECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Reps\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -206,9 +206,6 @@
     <t>TOYT</t>
   </si>
   <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
     <t>CAMRY LE/XLE/SE</t>
   </si>
   <si>
@@ -230,7 +227,10 @@
     <t>H-IMMOBILIZER/ALARM</t>
   </si>
   <si>
-    <t>1HGEM215&amp;F</t>
+    <t>4T1BE30K&amp;6</t>
+  </si>
+  <si>
+    <t>TOYOTA_UPDATED</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +704,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -716,19 +716,19 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="H2" s="2">
         <v>20000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>42</v>
@@ -736,10 +736,10 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="O2" s="2">
         <v>4</v>
@@ -753,10 +753,10 @@
         <v>2</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="V2" s="2">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>36</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z2" s="2">
         <v>11</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
